--- a/va_facility_data_2025-02-20/Marshalltown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marshalltown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Marshalltown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Marshalltown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdc8191d8eca94b58ba5b3ce78188a9b8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rad1da6ed907c4d5489d7c8b1f3d978e6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcb9ca0cb964c4426b35c650646ca2f82"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re34b5a48a80d46fd855deecee8385b9f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfd0a643528f44d8b9c736dbf6eebf231"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1990c04604244bf192f89457e42dabb6"/>
   </x:sheets>
 </x:workbook>
 </file>
